--- a/AllFiles/LP2-10001528.xlsx
+++ b/AllFiles/LP2-10001528.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abhishek_Gupta3\Downloads\TestDataDemo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4572E6A-09CC-43B2-8949-C03E4E9A7B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397D1BCC-4D84-443D-8DD9-5477E91D5CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -447,7 +447,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -457,6 +457,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,7 +518,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -497,6 +527,26 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -818,296 +868,296 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B14"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.453125" customWidth="1"/>
-    <col min="2" max="2" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.453125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="17.90625" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.7265625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="29.7265625" customWidth="1"/>
-    <col min="5" max="5" width="23.6328125" customWidth="1"/>
-    <col min="6" max="6" width="24.08984375" customWidth="1"/>
+    <col min="4" max="4" width="29.7265625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="23.6328125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="24.08984375" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="D3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="D4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="D5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="12" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="D6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="12" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="D7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="12" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="D8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="12" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="D9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="12" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="D10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="12" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="D11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="12" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="4" t="s">
         <v>50</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="D12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="1" t="s">
+      <c r="D13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="12" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="4" t="s">
         <v>58</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="D14" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="12" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1808,6 +1858,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="67550563-50c1-4715-81a9-f9e90602c363"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="968ddad5-7c4a-485d-8989-9ee9232da9cb">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010FD44FF25C3E14DA740240D082FF707" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="495513b5e4063d293a62700ac1a7ddb2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="968ddad5-7c4a-485d-8989-9ee9232da9cb" xmlns:ns3="67550563-50c1-4715-81a9-f9e90602c363" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8b7ef0a4a6b5a71311198de0ae39355b" ns2:_="" ns3:_="">
     <xsd:import namespace="968ddad5-7c4a-485d-8989-9ee9232da9cb"/>
@@ -2024,41 +2094,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="67550563-50c1-4715-81a9-f9e90602c363"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="968ddad5-7c4a-485d-8989-9ee9232da9cb">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3272D832-C6B3-4570-B809-8BA29C48E64C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CB47CA0-F7F5-44EB-BD72-FA563DE225E9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="968ddad5-7c4a-485d-8989-9ee9232da9cb"/>
-    <ds:schemaRef ds:uri="67550563-50c1-4715-81a9-f9e90602c363"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2081,9 +2120,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CB47CA0-F7F5-44EB-BD72-FA563DE225E9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3272D832-C6B3-4570-B809-8BA29C48E64C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="968ddad5-7c4a-485d-8989-9ee9232da9cb"/>
+    <ds:schemaRef ds:uri="67550563-50c1-4715-81a9-f9e90602c363"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>